--- a/Mr_Andry/BDE et BDQ WC&DOUCHE.xlsx
+++ b/Mr_Andry/BDE et BDQ WC&DOUCHE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Stage\Mr_Andry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD485FD6-42E2-4EA8-9142-34F6DE898427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B612AD-9E77-494E-846C-DFE819535785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,9 +886,6 @@
     <t>ColleGirfix</t>
   </si>
   <si>
-    <t>DEVIS</t>
-  </si>
-  <si>
     <t>MO</t>
   </si>
   <si>
@@ -916,6 +913,9 @@
       </rPr>
       <t>Treize millions quinze mille quatre cent Ariary (Ar. 13 015 400)</t>
     </r>
+  </si>
+  <si>
+    <t>TOT MAT + TRANSP</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5585,16 +5585,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F186" s="26">
+        <f>F184*0.1</f>
+        <v>784672</v>
+      </c>
+    </row>
     <row r="188" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
-      <c r="H188" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="I188" s="26">
-        <f>'BDE DOUCHE&amp;WC'!F108</f>
-        <v>13015400</v>
-      </c>
       <c r="J188" s="26"/>
       <c r="K188" s="26"/>
       <c r="L188" s="5"/>
@@ -5636,11 +5635,11 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="H191" s="26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I191" s="26">
-        <f>I190*0.2</f>
-        <v>1569344</v>
+        <f>I190*0.1</f>
+        <v>784672</v>
       </c>
       <c r="J191" s="26"/>
       <c r="K191" s="26"/>
@@ -5653,6 +5652,13 @@
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E192" s="202"/>
       <c r="F192" s="3"/>
+      <c r="H192" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I192" s="26">
+        <f>I190+I191</f>
+        <v>8631392</v>
+      </c>
       <c r="J192" s="26"/>
       <c r="K192" s="26"/>
       <c r="L192" s="5"/>
@@ -5665,11 +5671,11 @@
       <c r="E193" s="202"/>
       <c r="F193" s="3"/>
       <c r="H193" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I193" s="26">
-        <f>+F184*0.1</f>
-        <v>784672</v>
+        <f>I192*0.25</f>
+        <v>2157848</v>
       </c>
       <c r="J193" s="26"/>
       <c r="K193" s="26"/>
@@ -5686,8 +5692,8 @@
         <v>15</v>
       </c>
       <c r="I194" s="26">
-        <f>SUM(I190:I193)</f>
-        <v>10200736</v>
+        <f>SUM(I192:I193)</f>
+        <v>10789240</v>
       </c>
       <c r="J194" s="26"/>
       <c r="K194" s="26"/>
@@ -5898,7 +5904,7 @@
     </row>
     <row r="211" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F211" s="50" t="s">
         <v>21</v>
@@ -6106,7 +6112,7 @@
     </row>
     <row r="219" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F219" s="50" t="s">
         <v>30</v>
@@ -6375,8 +6381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7147,7 +7153,7 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="248" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="249"/>
       <c r="C54" s="249"/>
@@ -7752,7 +7758,7 @@
     </row>
     <row r="111" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="236" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B111" s="236"/>
       <c r="C111" s="236"/>
@@ -7806,8 +7812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/Mr_Andry/BDE et BDQ WC&DOUCHE.xlsx
+++ b/Mr_Andry/BDE et BDQ WC&DOUCHE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Stage\Mr_Andry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Stage\Mr_Andry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B612AD-9E77-494E-846C-DFE819535785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B7EC20-76CC-48C2-944A-1FE373AE3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
     <sheet name="PRIX MATX" sheetId="22" r:id="rId3"/>
     <sheet name="Feuil1" sheetId="46" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="233">
   <si>
     <t>II-1</t>
   </si>
@@ -916,6 +927,9 @@
   </si>
   <si>
     <t>TOT MAT + TRANSP</t>
+  </si>
+  <si>
+    <t>x``</t>
   </si>
 </sst>
 </file>
@@ -1837,6 +1851,39 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1846,42 +1893,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1905,7 +1919,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2216,11 +2230,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="96" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
@@ -2235,25 +2249,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="236" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
       <c r="G1" s="186"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="237" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
       <c r="G2" s="186"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,10 +2289,10 @@
       <c r="G4" s="186"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="237"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2334,16 +2348,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238"/>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="233" t="s">
+      <c r="A9" s="234"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="234"/>
-      <c r="H9" s="235"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="246"/>
       <c r="I9" s="166">
         <f>SUM(I8)</f>
         <v>0</v>
@@ -2359,10 +2373,10 @@
       <c r="G10" s="186"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="237"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2445,46 +2459,46 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="238"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="233" t="s">
+      <c r="A16" s="234"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="244" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="234"/>
-      <c r="H16" s="235"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="246"/>
       <c r="I16" s="166">
         <f>SUM(I14:I15)</f>
         <v>34350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="D17" s="35"/>
       <c r="E17" s="41"/>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="247" t="s">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="239" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="247"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="41"/>
       <c r="F18" s="44"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="D19" s="35"/>
       <c r="E19" s="41"/>
       <c r="F19" s="44"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>3</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
@@ -2555,7 +2569,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
@@ -2577,7 +2591,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="119"/>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
@@ -2599,7 +2613,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>4</v>
       </c>
@@ -2619,7 +2633,7 @@
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="119"/>
       <c r="B26" s="67"/>
       <c r="C26" s="10"/>
@@ -2640,8 +2654,11 @@
         <f>G26*H26</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +2678,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
@@ -2684,7 +2701,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
@@ -2707,7 +2724,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="119"/>
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
@@ -2730,7 +2747,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>6</v>
       </c>
@@ -2750,7 +2767,7 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
@@ -3172,16 +3189,16 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="238"/>
-      <c r="B51" s="238"/>
-      <c r="C51" s="238"/>
-      <c r="D51" s="238"/>
-      <c r="E51" s="239"/>
-      <c r="F51" s="233" t="s">
+      <c r="A51" s="234"/>
+      <c r="B51" s="234"/>
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="244" t="s">
         <v>209</v>
       </c>
-      <c r="G51" s="234"/>
-      <c r="H51" s="235"/>
+      <c r="G51" s="245"/>
+      <c r="H51" s="246"/>
       <c r="I51" s="166">
         <f>SUM(I21:I50)</f>
         <v>2142950</v>
@@ -3195,12 +3212,12 @@
       <c r="F52" s="123"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="247" t="s">
+      <c r="A53" s="239" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="247"/>
-      <c r="C53" s="247"/>
-      <c r="D53" s="247"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="239"/>
+      <c r="D53" s="239"/>
       <c r="E53" s="41"/>
       <c r="F53" s="44"/>
     </row>
@@ -3797,16 +3814,16 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="238"/>
-      <c r="B81" s="238"/>
-      <c r="C81" s="238"/>
-      <c r="D81" s="238"/>
-      <c r="E81" s="239"/>
-      <c r="F81" s="233" t="s">
+      <c r="A81" s="234"/>
+      <c r="B81" s="234"/>
+      <c r="C81" s="234"/>
+      <c r="D81" s="234"/>
+      <c r="E81" s="235"/>
+      <c r="F81" s="244" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="234"/>
-      <c r="H81" s="235"/>
+      <c r="G81" s="245"/>
+      <c r="H81" s="246"/>
       <c r="I81" s="166">
         <f>SUM(I56:I80)</f>
         <v>2250300</v>
@@ -3821,10 +3838,10 @@
       <c r="F82" s="164"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="237" t="s">
+      <c r="A83" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="237"/>
+      <c r="B83" s="238"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3990,16 +4007,16 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="238"/>
-      <c r="B92" s="238"/>
-      <c r="C92" s="238"/>
-      <c r="D92" s="238"/>
-      <c r="E92" s="239"/>
-      <c r="F92" s="233" t="s">
+      <c r="A92" s="234"/>
+      <c r="B92" s="234"/>
+      <c r="C92" s="234"/>
+      <c r="D92" s="234"/>
+      <c r="E92" s="235"/>
+      <c r="F92" s="244" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="234"/>
-      <c r="H92" s="235"/>
+      <c r="G92" s="245"/>
+      <c r="H92" s="246"/>
       <c r="I92" s="166">
         <f>SUM(I86:I91)</f>
         <v>287500</v>
@@ -4013,10 +4030,10 @@
       <c r="F93" s="61"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="237" t="s">
+      <c r="A94" s="238" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="237"/>
+      <c r="B94" s="238"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4248,16 +4265,16 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="238"/>
-      <c r="B106" s="238"/>
-      <c r="C106" s="238"/>
-      <c r="D106" s="238"/>
-      <c r="E106" s="239"/>
-      <c r="F106" s="233" t="s">
+      <c r="A106" s="234"/>
+      <c r="B106" s="234"/>
+      <c r="C106" s="234"/>
+      <c r="D106" s="234"/>
+      <c r="E106" s="235"/>
+      <c r="F106" s="244" t="s">
         <v>172</v>
       </c>
-      <c r="G106" s="234"/>
-      <c r="H106" s="235"/>
+      <c r="G106" s="245"/>
+      <c r="H106" s="246"/>
       <c r="I106" s="166">
         <f>SUM(I98:I105)</f>
         <v>1024620</v>
@@ -4271,10 +4288,10 @@
       <c r="F107" s="61"/>
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="237" t="s">
+      <c r="A108" s="238" t="s">
         <v>166</v>
       </c>
-      <c r="B108" s="237"/>
+      <c r="B108" s="238"/>
       <c r="D108" s="138"/>
       <c r="E108" s="61"/>
       <c r="F108" s="61"/>
@@ -4690,16 +4707,16 @@
       <c r="K127" s="130"/>
     </row>
     <row r="128" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="238"/>
-      <c r="B128" s="238"/>
-      <c r="C128" s="238"/>
-      <c r="D128" s="238"/>
-      <c r="E128" s="239"/>
-      <c r="F128" s="233" t="s">
+      <c r="A128" s="234"/>
+      <c r="B128" s="234"/>
+      <c r="C128" s="234"/>
+      <c r="D128" s="234"/>
+      <c r="E128" s="235"/>
+      <c r="F128" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="G128" s="234"/>
-      <c r="H128" s="235"/>
+      <c r="G128" s="245"/>
+      <c r="H128" s="246"/>
       <c r="I128" s="166">
         <f>SUM(I113:I127)</f>
         <v>1307000</v>
@@ -4713,10 +4730,10 @@
       <c r="F129" s="61"/>
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="237" t="s">
+      <c r="A130" s="238" t="s">
         <v>167</v>
       </c>
-      <c r="B130" s="237"/>
+      <c r="B130" s="238"/>
       <c r="D130" s="138"/>
       <c r="E130" s="61"/>
       <c r="F130" s="61"/>
@@ -4786,16 +4803,16 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="238"/>
-      <c r="B134" s="238"/>
-      <c r="C134" s="238"/>
-      <c r="D134" s="238"/>
-      <c r="E134" s="239"/>
-      <c r="F134" s="233" t="s">
+      <c r="A134" s="234"/>
+      <c r="B134" s="234"/>
+      <c r="C134" s="234"/>
+      <c r="D134" s="234"/>
+      <c r="E134" s="235"/>
+      <c r="F134" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="G134" s="234"/>
-      <c r="H134" s="235"/>
+      <c r="G134" s="245"/>
+      <c r="H134" s="246"/>
       <c r="I134" s="166">
         <f>SUM(I133)</f>
         <v>230000</v>
@@ -4809,10 +4826,10 @@
       <c r="F135" s="61"/>
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="237" t="s">
+      <c r="A136" s="238" t="s">
         <v>206</v>
       </c>
-      <c r="B136" s="237"/>
+      <c r="B136" s="238"/>
       <c r="D136" s="138"/>
       <c r="E136" s="61"/>
       <c r="F136" s="61"/>
@@ -5257,16 +5274,16 @@
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="238"/>
-      <c r="B157" s="238"/>
-      <c r="C157" s="238"/>
-      <c r="D157" s="238"/>
-      <c r="E157" s="239"/>
-      <c r="F157" s="233" t="s">
+      <c r="A157" s="234"/>
+      <c r="B157" s="234"/>
+      <c r="C157" s="234"/>
+      <c r="D157" s="234"/>
+      <c r="E157" s="235"/>
+      <c r="F157" s="244" t="s">
         <v>135</v>
       </c>
-      <c r="G157" s="234"/>
-      <c r="H157" s="235"/>
+      <c r="G157" s="245"/>
+      <c r="H157" s="246"/>
       <c r="I157" s="166">
         <f>SUM(I140:I156)</f>
         <v>257500</v>
@@ -5274,10 +5291,10 @@
     </row>
     <row r="158" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="237" t="s">
+      <c r="A159" s="238" t="s">
         <v>207</v>
       </c>
-      <c r="B159" s="237"/>
+      <c r="B159" s="238"/>
       <c r="D159" s="138"/>
       <c r="E159" s="61"/>
       <c r="F159" s="61"/>
@@ -5432,16 +5449,16 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="238"/>
-      <c r="B167" s="238"/>
-      <c r="C167" s="238"/>
-      <c r="D167" s="238"/>
-      <c r="E167" s="239"/>
-      <c r="F167" s="233" t="s">
+      <c r="A167" s="234"/>
+      <c r="B167" s="234"/>
+      <c r="C167" s="234"/>
+      <c r="D167" s="234"/>
+      <c r="E167" s="235"/>
+      <c r="F167" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="G167" s="234"/>
-      <c r="H167" s="235"/>
+      <c r="G167" s="245"/>
+      <c r="H167" s="246"/>
       <c r="I167" s="166">
         <f>SUM(I162:I166)</f>
         <v>312500</v>
@@ -5449,61 +5466,61 @@
     </row>
     <row r="168" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="240" t="s">
+      <c r="A171" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="B171" s="240"/>
+      <c r="B171" s="247"/>
     </row>
     <row r="173" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="236" t="str">
+      <c r="A173" s="240" t="str">
         <f>+A5</f>
         <v>SERIE N° 1 : INSTALLATION DE CHANTIER</v>
       </c>
-      <c r="B173" s="236"/>
+      <c r="B173" s="240"/>
       <c r="F173" s="26">
         <f>I9</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="236" t="str">
+      <c r="A174" s="240" t="str">
         <f>+A11</f>
         <v>SERIE N° 2 : TERRASSEMENT</v>
       </c>
-      <c r="B174" s="236"/>
+      <c r="B174" s="240"/>
       <c r="F174" s="26">
         <f>I16</f>
         <v>34350</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="236" t="str">
+      <c r="A175" s="240" t="str">
         <f>+A18</f>
         <v xml:space="preserve">SERIE N° 3 : BETON ET MACONNERIE EN INFRASTRUCTURE </v>
       </c>
-      <c r="B175" s="236"/>
+      <c r="B175" s="240"/>
       <c r="F175" s="26">
         <f>I51</f>
         <v>2142950</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="236" t="str">
+      <c r="A176" s="240" t="str">
         <f>+A53</f>
         <v>SERIE N° 4 : BETON ET MACONNERIE EN SUPERSTRUCTURE</v>
       </c>
-      <c r="B176" s="236"/>
+      <c r="B176" s="240"/>
       <c r="F176" s="26">
         <f>I81</f>
         <v>2250300</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="236" t="str">
+      <c r="A177" s="240" t="str">
         <f>+A83</f>
         <v>SERIE N° 5: ENDUIT</v>
       </c>
-      <c r="B177" s="236"/>
+      <c r="B177" s="240"/>
       <c r="F177" s="26">
         <f>I92</f>
         <v>287500</v>
@@ -5521,44 +5538,44 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="236" t="str">
+      <c r="A179" s="240" t="str">
         <f>+A108</f>
         <v xml:space="preserve">SERIE N° 7: CHARPENTE - COUVERTURE - PLAFONNAGE </v>
       </c>
-      <c r="B179" s="236"/>
+      <c r="B179" s="240"/>
       <c r="F179" s="26">
         <f>I128</f>
         <v>1307000</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="236" t="str">
+      <c r="A180" s="240" t="str">
         <f>+A130</f>
         <v>SERIE N° 8: MENUISERIE BOIS</v>
       </c>
-      <c r="B180" s="236"/>
+      <c r="B180" s="240"/>
       <c r="F180" s="26">
         <f>I134</f>
         <v>230000</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="236" t="str">
+      <c r="A181" s="240" t="str">
         <f>+A136</f>
         <v xml:space="preserve">SERIE N° 9: PEINTURE </v>
       </c>
-      <c r="B181" s="236"/>
+      <c r="B181" s="240"/>
       <c r="F181" s="26">
         <f>I157</f>
         <v>257500</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="236" t="str">
+      <c r="A182" s="240" t="str">
         <f>+A159</f>
         <v>SERIE N° 10: PLOMBERIE SANITAIRE</v>
       </c>
-      <c r="B182" s="236"/>
+      <c r="B182" s="240"/>
       <c r="F182" s="26">
         <f>I167</f>
         <v>312500</v>
@@ -5852,13 +5869,13 @@
       <c r="P207" s="78"/>
     </row>
     <row r="208" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E208" s="244" t="s">
+      <c r="E208" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="F208" s="244"/>
-      <c r="G208" s="244"/>
-      <c r="H208" s="244"/>
-      <c r="I208" s="244"/>
+      <c r="F208" s="233"/>
+      <c r="G208" s="233"/>
+      <c r="H208" s="233"/>
+      <c r="I208" s="233"/>
       <c r="J208" s="162"/>
       <c r="K208" s="205"/>
       <c r="L208" s="5"/>
@@ -6327,6 +6344,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A157:E157"/>
     <mergeCell ref="E208:I208"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A1:F1"/>
@@ -6343,34 +6388,6 @@
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A173:B173"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.31496062992125984" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -6385,7 +6402,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
@@ -6399,25 +6416,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="236" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
       <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="237" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6430,10 +6447,10 @@
       <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6501,10 +6518,10 @@
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="237" t="s">
+      <c r="A10" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="238"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6570,12 +6587,12 @@
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="247" t="s">
+      <c r="A16" s="239" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="247"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="41"/>
       <c r="F16" s="44"/>
     </row>
@@ -6779,12 +6796,12 @@
       <c r="F27" s="123"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="247" t="s">
+      <c r="A28" s="239" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
       <c r="E28" s="41"/>
       <c r="F28" s="44"/>
     </row>
@@ -6992,10 +7009,10 @@
       <c r="F41" s="164"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="237" t="s">
+      <c r="A42" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="237"/>
+      <c r="B42" s="238"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7082,10 +7099,10 @@
       <c r="F48" s="61"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="237" t="s">
+      <c r="A49" s="238" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="237"/>
+      <c r="B49" s="238"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7172,10 +7189,10 @@
       <c r="F55" s="61"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="237" t="s">
+      <c r="A56" s="238" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="237"/>
+      <c r="B56" s="238"/>
       <c r="D56" s="138"/>
       <c r="E56" s="61"/>
       <c r="F56" s="61"/>
@@ -7312,10 +7329,10 @@
       <c r="F64" s="61"/>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="238" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="237"/>
+      <c r="B65" s="238"/>
       <c r="D65" s="138"/>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
@@ -7390,10 +7407,10 @@
       <c r="F70" s="61"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="237" t="s">
+      <c r="A71" s="238" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="237"/>
+      <c r="B71" s="238"/>
       <c r="D71" s="138"/>
       <c r="E71" s="61"/>
       <c r="F71" s="61"/>
@@ -7533,10 +7550,10 @@
     <row r="84" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="237" t="s">
+      <c r="A86" s="238" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="237"/>
+      <c r="B86" s="238"/>
       <c r="D86" s="138"/>
       <c r="E86" s="61"/>
       <c r="F86" s="61"/>
@@ -7625,61 +7642,61 @@
     </row>
     <row r="92" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="240" t="s">
+      <c r="A95" s="247" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="240"/>
+      <c r="B95" s="247"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="236" t="str">
+      <c r="A97" s="240" t="str">
         <f>+A4</f>
         <v>SERIE N° 1 : INSTALLATION DE CHANTIER</v>
       </c>
-      <c r="B97" s="236"/>
+      <c r="B97" s="240"/>
       <c r="F97" s="26">
         <f>F8</f>
         <v>800000</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="236" t="str">
+      <c r="A98" s="240" t="str">
         <f>+A10</f>
         <v>SERIE N° 2 : TERRASSEMENT</v>
       </c>
-      <c r="B98" s="236"/>
+      <c r="B98" s="240"/>
       <c r="F98" s="26">
         <f>F14</f>
         <v>66000</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="236" t="str">
+      <c r="A99" s="240" t="str">
         <f>+A16</f>
         <v xml:space="preserve">SERIE N° 3 : BETON ET MACONNERIE EN INFRASTRUCTURE </v>
       </c>
-      <c r="B99" s="236"/>
+      <c r="B99" s="240"/>
       <c r="F99" s="26">
         <f>F26</f>
         <v>3861230</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="236" t="str">
+      <c r="A100" s="240" t="str">
         <f>+A28</f>
         <v>SERIE N° 4 : BETON ET MACONNERIE EN SUPERSTRUCTURE</v>
       </c>
-      <c r="B100" s="236"/>
+      <c r="B100" s="240"/>
       <c r="F100" s="26">
         <f>F37</f>
         <v>3556440</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="236" t="str">
+      <c r="A101" s="240" t="str">
         <f>+A42</f>
         <v>SERIE N° 5: ENDUIT</v>
       </c>
-      <c r="B101" s="236"/>
+      <c r="B101" s="240"/>
       <c r="F101" s="26">
         <f>F47</f>
         <v>49680</v>
@@ -7697,44 +7714,44 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="236" t="str">
+      <c r="A103" s="240" t="str">
         <f>+A56</f>
         <v xml:space="preserve">SERIE N° 7: CHARPENTE - COUVERTURE - PLAFONNAGE </v>
       </c>
-      <c r="B103" s="236"/>
+      <c r="B103" s="240"/>
       <c r="F103" s="26">
         <f>F63</f>
         <v>1892125</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="236" t="str">
+      <c r="A104" s="240" t="str">
         <f>+A65</f>
         <v>SERIE N° 8: MENUISERIE BOIS</v>
       </c>
-      <c r="B104" s="236"/>
+      <c r="B104" s="240"/>
       <c r="F104" s="26">
         <f>F69</f>
         <v>277000</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="236" t="str">
+      <c r="A105" s="240" t="str">
         <f>+A71</f>
         <v xml:space="preserve">SERIE N° 9: PEINTURE </v>
       </c>
-      <c r="B105" s="236"/>
+      <c r="B105" s="240"/>
       <c r="F105" s="26">
         <f>F78</f>
         <v>532125</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="236" t="str">
+      <c r="A106" s="240" t="str">
         <f>+A86</f>
         <v>SERIE N° 10: PLOMBERIE SANITAIRE</v>
       </c>
-      <c r="B106" s="236"/>
+      <c r="B106" s="240"/>
       <c r="F106" s="26">
         <f>F91</f>
         <v>435000</v>
@@ -7757,17 +7774,35 @@
       <c r="H108" s="232"/>
     </row>
     <row r="111" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="236" t="s">
+      <c r="A111" s="240" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="236"/>
-      <c r="C111" s="236"/>
-      <c r="D111" s="236"/>
-      <c r="E111" s="236"/>
-      <c r="F111" s="236"/>
+      <c r="B111" s="240"/>
+      <c r="C111" s="240"/>
+      <c r="D111" s="240"/>
+      <c r="E111" s="240"/>
+      <c r="F111" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A111:F111"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A26:E26"/>
@@ -7784,24 +7819,6 @@
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A103:B103"/>
   </mergeCells>
   <pageMargins left="0.57999999999999996" right="0.23622047244094491" top="0.31496062992125984" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -7816,7 +7833,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="92" customWidth="1"/>
     <col min="2" max="2" width="9" style="93" customWidth="1"/>
@@ -8580,7 +8597,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
